--- a/XuMiuDuTing/RabiConfig/xlsx/SFX.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/SFX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FB5077-7370-44A2-81E0-1A79CA37C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0C84E3-5E8D-47FE-B9E1-CAB27EA49683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>string</t>
   </si>
@@ -232,6 +232,36 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/SFX/循环音效/跑步_循环.wav</t>
+  </si>
+  <si>
+    <t>401277__inspectorj__rain-moderate-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/循环音效/401277__inspectorj__rain-moderate-a.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/响指.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进门铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/进门铃铛.wav</t>
+  </si>
+  <si>
+    <t>吞噬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/吞噬.wav</t>
   </si>
 </sst>
 </file>
@@ -566,14 +596,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -587,22 +617,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -622,7 +652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -642,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -662,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -682,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -702,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -722,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -742,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -762,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -782,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -802,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -822,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -842,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -862,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -882,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -902,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -920,6 +950,86 @@
       </c>
       <c r="F16" s="1" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -937,13 +1047,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -954,7 +1064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -965,7 +1075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -976,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -985,7 +1095,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>

--- a/XuMiuDuTing/RabiConfig/xlsx/SFX.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/SFX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0C84E3-5E8D-47FE-B9E1-CAB27EA49683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A5AA2C-EBDB-4D1E-B65E-312D34D5CA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>string</t>
   </si>
@@ -262,6 +262,42 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/SFX/吞噬.wav</t>
+  </si>
+  <si>
+    <t>碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/碰撞.WAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进门铃铛</t>
+  </si>
+  <si>
+    <t>斩人</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/斩人.WAV</t>
+  </si>
+  <si>
+    <t>狼吼</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/狼吼.MP3</t>
+  </si>
+  <si>
+    <t>空间震荡</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/循环音效/空间震荡_循环.wav</t>
+  </si>
+  <si>
+    <t>虚谬空洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/循环音效/虚谬空洞_循环.wav</t>
   </si>
 </sst>
 </file>
@@ -596,14 +632,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -617,22 +653,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="1" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -652,7 +688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -672,7 +708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -692,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -712,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -732,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -752,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -772,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -792,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -812,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -832,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -852,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -872,164 +908,284 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1047,13 +1203,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1064,7 +1220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1075,7 +1231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1095,7 +1251,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>

--- a/XuMiuDuTing/RabiConfig/xlsx/SFX.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/SFX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A5AA2C-EBDB-4D1E-B65E-312D34D5CA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78026E91-AACB-421E-B5B4-A04DCD9B1BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="149">
   <si>
     <t>string</t>
   </si>
@@ -298,6 +298,237 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/SFX/循环音效/虚谬空洞_循环.wav</t>
+  </si>
+  <si>
+    <t>玻璃破碎</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/玻璃破碎.MP3</t>
+  </si>
+  <si>
+    <t>狗子-不行啊</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-不行啊.WAV</t>
+  </si>
+  <si>
+    <t>狗子-呃……</t>
+  </si>
+  <si>
+    <t>狗子-我知道了（害羞）</t>
+  </si>
+  <si>
+    <t>狗子-诶？</t>
+  </si>
+  <si>
+    <t>vk-那么……</t>
+  </si>
+  <si>
+    <t>vk-初次见面</t>
+  </si>
+  <si>
+    <t>vk-毕竟</t>
+  </si>
+  <si>
+    <t>vk-我……</t>
+  </si>
+  <si>
+    <t>狗子-我吗？</t>
+  </si>
+  <si>
+    <t>狗子-说起来</t>
+  </si>
+  <si>
+    <t>狗子-曾经的自己，全都忘记了……</t>
+  </si>
+  <si>
+    <t>狗子-维多利亚？</t>
+  </si>
+  <si>
+    <t>vk-但是……</t>
+  </si>
+  <si>
+    <t>vk-嘛~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vk-但因此</t>
+  </si>
+  <si>
+    <t>狗子-搜得死噶……</t>
+  </si>
+  <si>
+    <t>狗子-但是</t>
+  </si>
+  <si>
+    <t>狗子-正因如此</t>
+  </si>
+  <si>
+    <t>狗子-哦~</t>
+  </si>
+  <si>
+    <t>狗子-维多利亚（迟疑）</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-呃…….WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-我知道了（害羞）.wav</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-诶？.WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-哦~.WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-我吗？.WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-说起来.WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-曾经的自己，全都忘记了…….WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-维多利亚？.wav</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-搜得死噶…….wav</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-但是.WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-正因如此.wav</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-维多利亚（迟疑）.wav</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-那么…….WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-初次见面.WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-毕竟.WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-我…….WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-嘛~.WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-但是…….WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-但因此.WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-嗯？.WAV</t>
+  </si>
+  <si>
+    <t>狗子-嗯？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗子-忘记了</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-忘记了.WAV</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-我知道了.wav</t>
+  </si>
+  <si>
+    <t>狗子-我知道了</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-我维克多——.wav</t>
+  </si>
+  <si>
+    <t>狗子-我维克多——</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-维克多……啊.wav</t>
+  </si>
+  <si>
+    <t>狗子-维克多……啊</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-话说…….WAV</t>
+  </si>
+  <si>
+    <t>狗子-话说……</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-不明白吗？.WAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vk-不明白吗？</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-专属台词01.WAV</t>
+  </si>
+  <si>
+    <t>vk-专属台词01</t>
+  </si>
+  <si>
+    <t>vk-专属台词02</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-专属台词02.WAV</t>
+  </si>
+  <si>
+    <t>vk-专属台词03</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-专属台词03.WAV</t>
+  </si>
+  <si>
+    <t>vk-专属台词04</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-专属台词04.WAV</t>
+  </si>
+  <si>
+    <t>vk-你在做什么……</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-你在做什么…….WAV</t>
+  </si>
+  <si>
+    <t>vk-发现了</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-发现了.WAV</t>
+  </si>
+  <si>
+    <t>vk-唉……</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-唉…….WAV</t>
+  </si>
+  <si>
+    <t>vk-振作一点哟</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-振作一点哟.WAV</t>
+  </si>
+  <si>
+    <t>vk-浪费时间</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-浪费时间.WAV</t>
+  </si>
+  <si>
+    <t>vk-还不赖</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-还不赖.WAV</t>
   </si>
 </sst>
 </file>
@@ -653,16 +884,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
@@ -769,34 +1001,34 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>36</v>
+      <c r="A6" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>37</v>
+      <c r="A7" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -810,19 +1042,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -830,13 +1062,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -850,39 +1082,39 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>40</v>
+      <c r="A11" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -890,13 +1122,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -910,13 +1142,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -930,13 +1162,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -950,13 +1182,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -970,13 +1202,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -989,14 +1221,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>64</v>
+      <c r="A17" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1009,14 +1241,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>65</v>
+      <c r="A18" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1029,14 +1261,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>67</v>
+      <c r="A19" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1050,13 +1282,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1070,13 +1302,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1090,13 +1322,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1104,19 +1336,19 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="b">
-        <v>1</v>
+      <c r="F22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1124,19 +1356,19 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="b">
-        <v>1</v>
+      <c r="F23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1144,19 +1376,19 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="b">
-        <v>1</v>
+      <c r="F24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>69</v>
+      <c r="A25" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1164,28 +1396,788 @@
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="b">
-        <v>1</v>
+      <c r="F25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C63" t="s">
         <v>72</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="b">
-        <v>1</v>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/SFX.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/SFX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78026E91-AACB-421E-B5B4-A04DCD9B1BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A6E0DD-792D-4016-BF08-581EF4ADCD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="153">
   <si>
     <t>string</t>
   </si>
@@ -394,9 +394,6 @@
     <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-维多利亚？.wav</t>
   </si>
   <si>
-    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-搜得死噶…….wav</t>
-  </si>
-  <si>
     <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-但是.WAV</t>
   </si>
   <si>
@@ -529,6 +526,22 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/SFX/AVG演出语音资源/VK简单语音/vk-还不赖.WAV</t>
+  </si>
+  <si>
+    <t>火焰</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/循环音效/火焰.wav</t>
+  </si>
+  <si>
+    <t>枪声</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/枪声.mp3</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-搜得死噶…….WAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -884,10 +897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,16 +1015,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1022,16 +1035,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1042,16 +1055,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D8">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1062,16 +1075,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D9">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1082,16 +1095,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D10">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1108,10 +1121,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1128,10 +1141,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1142,16 +1155,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D13">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1168,10 +1181,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1182,16 +1195,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="D15">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1202,16 +1215,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="D16">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1228,10 +1241,10 @@
         <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1248,10 +1261,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1262,16 +1275,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D19">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1288,10 +1301,10 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1302,16 +1315,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D21">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1322,16 +1335,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="D22">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1348,10 +1361,10 @@
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1371,7 +1384,7 @@
         <v>76</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1388,10 +1401,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1411,7 +1424,7 @@
         <v>96</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1431,7 +1444,7 @@
         <v>99</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1442,16 +1455,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1462,16 +1475,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="D29">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1491,7 +1504,7 @@
         <v>100</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1502,16 +1515,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1531,7 +1544,7 @@
         <v>97</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1542,16 +1555,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1568,10 +1581,10 @@
         <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1591,7 +1604,7 @@
         <v>102</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1608,10 +1621,10 @@
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1622,16 +1635,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1648,10 +1661,10 @@
         <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1671,7 +1684,7 @@
         <v>103</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1682,16 +1695,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -1711,7 +1724,7 @@
         <v>101</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1731,7 +1744,7 @@
         <v>98</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -2061,14 +2074,14 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>50</v>
+      <c r="A59" t="s">
+        <v>73</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>52</v>
+      <c r="C59" t="s">
+        <v>74</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2076,19 +2089,19 @@
       <c r="E59" t="b">
         <v>0</v>
       </c>
-      <c r="F59" s="1" t="b">
-        <v>1</v>
+      <c r="F59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>51</v>
+      <c r="A60" t="s">
+        <v>150</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2096,19 +2109,19 @@
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="b">
-        <v>1</v>
+      <c r="F60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2121,14 +2134,14 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>69</v>
+      <c r="A62" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2142,13 +2155,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C63" t="s">
-        <v>72</v>
+      <c r="C63" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2162,13 +2175,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2176,8 +2189,48 @@
       <c r="E64" t="b">
         <v>0</v>
       </c>
-      <c r="F64" t="b">
-        <v>0</v>
+      <c r="F64" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/SFX.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/SFX.xlsx
@@ -8,21 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A6E0DD-792D-4016-BF08-581EF4ADCD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E26CF0A-F2DE-4E34-A012-E757D2C87604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
     <sheet name="SFX" sheetId="1" r:id="rId2"/>
     <sheet name="SFXType" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="215">
   <si>
     <t>string</t>
   </si>
@@ -138,18 +149,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AddressableAssets/SFX/dog语音/攻击1.mp3,Assets/AddressableAssets/SFX/dog语音/攻击2.mp3,Assets/AddressableAssets/SFX/dog语音/攻击3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AddressableAssets/SFX/dog语音/技能1.mp3,Assets/AddressableAssets/SFX/dog语音/技能2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AddressableAssets/SFX/系统音效/error不可用.wav</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,6 +544,214 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/SFX/AVG演出语音资源/狗子简单语音/狗子-搜得死噶…….WAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/-导演.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-导演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-梅比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/-梅比.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-维多利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/-维多利亚.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-罗亚德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/-罗亚德.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PV旁白</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/PV旁白.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交谈1</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/交谈1.wav</t>
+  </si>
+  <si>
+    <t>交谈2</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/交谈2.wav</t>
+  </si>
+  <si>
+    <t>交谈3</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/交谈3.wav</t>
+  </si>
+  <si>
+    <t>初次见面</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/初次见面.wav</t>
+  </si>
+  <si>
+    <t>历战</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/历战.wav</t>
+  </si>
+  <si>
+    <t>历战后解锁</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/历战后解锁.wav</t>
+  </si>
+  <si>
+    <t>受击1</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/受击1.wav</t>
+  </si>
+  <si>
+    <t>受击2</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/受击2.wav</t>
+  </si>
+  <si>
+    <t>好感度1</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/好感度1.wav</t>
+  </si>
+  <si>
+    <t>好感度2</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/好感度2.wav</t>
+  </si>
+  <si>
+    <t>好感度3</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/好感度3.wav</t>
+  </si>
+  <si>
+    <t>对圣骸之春</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/对圣骸之春.wav</t>
+  </si>
+  <si>
+    <t>必杀技1</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/必杀技1.wav</t>
+  </si>
+  <si>
+    <t>必杀技2</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/必杀技2.wav</t>
+  </si>
+  <si>
+    <t>战斗开始1</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/战斗开始1.wav</t>
+  </si>
+  <si>
+    <t>战斗开始2</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/战斗开始2.wav</t>
+  </si>
+  <si>
+    <t>战斗胜利</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/战斗胜利.wav</t>
+  </si>
+  <si>
+    <t>技能1</t>
+  </si>
+  <si>
+    <t>技能2</t>
+  </si>
+  <si>
+    <t>攻击1</t>
+  </si>
+  <si>
+    <t>攻击2</t>
+  </si>
+  <si>
+    <t>攻击3</t>
+  </si>
+  <si>
+    <t>无法战斗1</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/无法战斗1.wav</t>
+  </si>
+  <si>
+    <t>无法战斗2</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/无法战斗2.wav</t>
+  </si>
+  <si>
+    <t>警察时装</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/警察时装.wav</t>
+  </si>
+  <si>
+    <t>问候</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/问候.wav</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/攻击1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/攻击2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/攻击3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/攻击1.wav,Assets/AddressableAssets/SFX/dog语音/攻击2.wav,Assets/AddressableAssets/SFX/dog语音/攻击3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/技能1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/技能2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/技能1.wav,Assets/AddressableAssets/SFX/dog语音/技能2.wav</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,9 +803,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -876,14 +1093,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -897,23 +1114,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -933,7 +1150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -953,7 +1170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -973,58 +1190,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D6">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1033,18 +1250,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1053,18 +1270,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D8">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1073,18 +1290,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D9">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1093,38 +1310,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D10">
-        <v>2.5</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D11">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1133,18 +1350,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D12">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1153,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>136</v>
       </c>
@@ -1164,7 +1381,7 @@
         <v>137</v>
       </c>
       <c r="D13">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1173,78 +1390,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D14">
-        <v>2.5</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15">
-        <v>2.5</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D16">
-        <v>2.5</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D17">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1253,18 +1470,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D18">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1273,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>142</v>
       </c>
@@ -1284,7 +1501,7 @@
         <v>143</v>
       </c>
       <c r="D19">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1293,18 +1510,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="D20">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1313,18 +1530,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="D21">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1333,18 +1550,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="D22">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1353,18 +1570,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D23">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1373,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -1381,10 +1598,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D24">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1393,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
@@ -1401,10 +1618,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D25">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1413,18 +1630,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D26">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1433,18 +1650,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D27">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1453,18 +1670,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D28">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1473,18 +1690,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D29">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1493,18 +1710,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D30">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1513,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>119</v>
       </c>
@@ -1524,7 +1741,7 @@
         <v>118</v>
       </c>
       <c r="D31">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1533,18 +1750,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D32">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1553,18 +1770,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1573,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -1581,10 +1798,10 @@
         <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D34">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1593,18 +1810,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D35">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1613,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
@@ -1621,10 +1838,10 @@
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1633,38 +1850,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D37">
-        <v>2.5</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D38">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1673,18 +1890,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D39">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1693,18 +1910,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D40">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -1713,38 +1930,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>85</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>79</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="D42">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -1753,9 +1970,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>36</v>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>23</v>
@@ -1773,9 +1990,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>37</v>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>23</v>
@@ -1793,15 +2010,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1813,75 +2030,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>42</v>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>40</v>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>45</v>
+      <c r="C49" t="s">
+        <v>57</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1893,15 +2110,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>57</v>
+      <c r="C50" t="s">
+        <v>59</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1913,15 +2130,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C51" t="s">
-        <v>59</v>
+      <c r="C51" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1933,15 +2150,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1953,15 +2170,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>63</v>
+      <c r="C53" t="s">
+        <v>64</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1973,15 +2190,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1993,15 +2210,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>65</v>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C55" t="s">
-        <v>66</v>
+      <c r="C55" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2013,15 +2230,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>67</v>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C56" t="s">
-        <v>68</v>
+      <c r="C56" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2033,15 +2250,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>46</v>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>71</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>47</v>
+      <c r="C57" t="s">
+        <v>72</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2053,15 +2270,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>48</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>148</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>49</v>
+      <c r="C58" t="s">
+        <v>149</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2073,15 +2290,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>73</v>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C59" t="s">
-        <v>74</v>
+      <c r="C59" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2089,19 +2306,19 @@
       <c r="E59" t="b">
         <v>0</v>
       </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>150</v>
+      <c r="F59" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2109,19 +2326,19 @@
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2133,15 +2350,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>51</v>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2153,15 +2370,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>55</v>
+      <c r="C63" t="s">
+        <v>70</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2173,15 +2390,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2193,15 +2410,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>71</v>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2209,19 +2426,19 @@
       <c r="E65" t="b">
         <v>0</v>
       </c>
-      <c r="F65" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>148</v>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" t="s">
-        <v>149</v>
+        <v>24</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2229,8 +2446,628 @@
       <c r="E66" t="b">
         <v>0</v>
       </c>
-      <c r="F66" s="1" t="b">
-        <v>1</v>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2248,13 +3085,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2265,7 +3102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2276,7 +3113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +3124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2296,7 +3133,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
